--- a/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_nd2ps_06v0_cv.nl_out.xlsx
+++ b/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_nd2ps_06v0_cv.nl_out.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="15">
   <si>
-    <t xml:space="preserve">W (um)</t>
+    <t xml:space="preserve">Area</t>
   </si>
   <si>
-    <t xml:space="preserve">L (um)</t>
+    <t xml:space="preserve">Pj</t>
   </si>
   <si>
     <t xml:space="preserve">corners</t>
@@ -113,13 +113,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -268,7 +268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +304,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -345,7 +345,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -366,6 +366,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -604,7 +609,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -625,6 +630,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -863,7 +873,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -884,6 +894,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1091,11 +1106,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="51655620"/>
-        <c:axId val="22785239"/>
+        <c:axId val="31934692"/>
+        <c:axId val="29859816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51655620"/>
+        <c:axId val="31934692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1154,7 +1169,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1185,13 +1200,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22785239"/>
+        <c:crossAx val="29859816"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22785239"/>
+        <c:axId val="29859816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1250,7 +1265,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1281,7 +1296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51655620"/>
+        <c:crossAx val="31934692"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1290,7 +1305,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1302,7 +1317,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1338,7 +1353,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1374,7 +1389,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1415,7 +1430,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1436,6 +1451,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1674,7 +1694,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1695,6 +1715,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1933,7 +1958,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1954,6 +1979,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2161,11 +2191,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54962683"/>
-        <c:axId val="52698048"/>
+        <c:axId val="67437666"/>
+        <c:axId val="45058410"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54962683"/>
+        <c:axId val="67437666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2224,7 +2254,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2255,13 +2285,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52698048"/>
+        <c:crossAx val="45058410"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52698048"/>
+        <c:axId val="45058410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2320,7 +2350,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2351,7 +2381,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54962683"/>
+        <c:crossAx val="67437666"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2360,7 +2390,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2372,7 +2402,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2408,7 +2438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2444,7 +2474,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2485,7 +2515,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2506,6 +2536,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2744,7 +2779,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2765,6 +2800,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3003,7 +3043,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3024,6 +3064,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3231,11 +3276,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70412053"/>
-        <c:axId val="84651815"/>
+        <c:axId val="65646611"/>
+        <c:axId val="30403623"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70412053"/>
+        <c:axId val="65646611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3294,7 +3339,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3325,13 +3370,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84651815"/>
+        <c:crossAx val="30403623"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84651815"/>
+        <c:axId val="30403623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -3390,7 +3435,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3421,7 +3466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70412053"/>
+        <c:crossAx val="65646611"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3430,7 +3475,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3442,7 +3487,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3478,7 +3523,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3514,7 +3559,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3555,7 +3600,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3576,6 +3621,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3814,7 +3864,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3835,6 +3885,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4073,7 +4128,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4094,6 +4149,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4301,11 +4361,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50641505"/>
-        <c:axId val="68628192"/>
+        <c:axId val="90376700"/>
+        <c:axId val="82387075"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50641505"/>
+        <c:axId val="90376700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4364,7 +4424,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4395,13 +4455,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68628192"/>
+        <c:crossAx val="82387075"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68628192"/>
+        <c:axId val="82387075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="140"/>
@@ -4460,7 +4520,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4491,7 +4551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50641505"/>
+        <c:crossAx val="90376700"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -4500,7 +4560,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -4512,7 +4572,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4548,7 +4608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4584,7 +4644,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4625,7 +4685,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4646,6 +4706,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4884,7 +4949,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4905,6 +4970,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5143,7 +5213,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5164,6 +5234,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5371,11 +5446,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="23728281"/>
-        <c:axId val="14579326"/>
+        <c:axId val="56603502"/>
+        <c:axId val="90837990"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23728281"/>
+        <c:axId val="56603502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5434,7 +5509,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5465,13 +5540,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14579326"/>
+        <c:crossAx val="90837990"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14579326"/>
+        <c:axId val="90837990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -5530,7 +5605,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5561,7 +5636,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23728281"/>
+        <c:crossAx val="56603502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -5570,7 +5645,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -5582,7 +5657,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5618,7 +5693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5654,7 +5729,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5695,7 +5770,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5716,6 +5791,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5954,7 +6034,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5975,6 +6055,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6213,7 +6298,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6234,6 +6319,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6441,11 +6531,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="32595019"/>
-        <c:axId val="39800799"/>
+        <c:axId val="31582963"/>
+        <c:axId val="65333773"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32595019"/>
+        <c:axId val="31582963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6504,7 +6594,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -6535,13 +6625,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39800799"/>
+        <c:crossAx val="65333773"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39800799"/>
+        <c:axId val="65333773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -6600,7 +6690,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -6631,7 +6721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32595019"/>
+        <c:crossAx val="31582963"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -6640,7 +6730,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -6652,7 +6742,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6688,7 +6778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6724,7 +6814,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6765,7 +6855,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6786,6 +6876,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7024,7 +7119,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7045,6 +7140,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7283,7 +7383,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7304,6 +7404,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7511,11 +7616,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52854680"/>
-        <c:axId val="63713737"/>
+        <c:axId val="71903282"/>
+        <c:axId val="40784428"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52854680"/>
+        <c:axId val="71903282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7574,7 +7679,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -7605,13 +7710,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63713737"/>
+        <c:crossAx val="40784428"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63713737"/>
+        <c:axId val="40784428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75"/>
@@ -7670,7 +7775,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -7701,7 +7806,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52854680"/>
+        <c:crossAx val="71903282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -7710,7 +7815,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -7722,7 +7827,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -7758,7 +7863,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7794,7 +7899,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -7835,7 +7940,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7856,6 +7961,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8094,7 +8204,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8115,6 +8225,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8353,7 +8468,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8374,6 +8489,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8581,11 +8701,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="11544605"/>
-        <c:axId val="96081389"/>
+        <c:axId val="23838588"/>
+        <c:axId val="82535846"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11544605"/>
+        <c:axId val="23838588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8644,7 +8764,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -8675,13 +8795,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96081389"/>
+        <c:crossAx val="82535846"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96081389"/>
+        <c:axId val="82535846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -8740,7 +8860,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -8771,7 +8891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11544605"/>
+        <c:crossAx val="23838588"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8779,7 +8899,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -8791,7 +8911,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -8838,9 +8958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8868,9 +8988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8878,8 +8998,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="10159920"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="10159920"/>
+        <a:ext cx="8951400" cy="4095360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8898,9 +9018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8908,8 +9028,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17334000" y="14255640"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:off x="17334000" y="14256000"/>
+        <a:ext cx="8951760" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8928,9 +9048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8938,8 +9058,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="14255640"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="14256000"/>
+        <a:ext cx="8951400" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8958,9 +9078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8969,7 +9089,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17334000" y="18351360"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8988,9 +9108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8998,8 +9118,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="18351360"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="18351360"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9018,9 +9138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9029,7 +9149,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17334000" y="22447080"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9048,9 +9168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9058,8 +9178,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="22447080"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="22447080"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9080,7 +9200,7 @@
   <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14274,8 +14394,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
